--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -16328,7 +16328,7 @@
     </row>
     <row r="2">
       <c r="B2" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C2" t="n">
         <v>2050</v>
@@ -16341,10 +16341,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>3398.45</v>
       </c>
       <c r="C3" t="n">
-        <v>100000</v>
+        <v>3398.45</v>
       </c>
     </row>
     <row r="4" s="30"/>
